--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\TextMining\Pascal_ProteinLiteratureFinder\VersionDec2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research-data.shared.sydney.edu.au\RDS-01\PRJ-CRC\Pascal\Text-mining\Manuscript\Supplement\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DC9D70-0689-4620-A0EC-EE3360184D13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="11115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>UniProtID</t>
   </si>
@@ -41,9 +36,6 @@
     <t>KeywordInTitleOnly</t>
   </si>
   <si>
-    <t>Metastasis</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -62,22 +54,19 @@
     <t>Q61475</t>
   </si>
   <si>
-    <t>CD55</t>
-  </si>
-  <si>
     <t>IDType</t>
   </si>
   <si>
     <t>Accession</t>
   </si>
   <si>
-    <t>Gene</t>
+    <t>Cancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -454,104 +443,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>9606</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>9606</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>9606</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10090</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>9606</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>10090</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
